--- a/database.xlsx
+++ b/database.xlsx
@@ -5,14 +5,15 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ธีรยุทธ\Dropbox\เอกสารใหม่\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ธีรยุทธ\Documents\GitHub\adviserNew\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11670" windowHeight="4680"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11670" windowHeight="4680" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
   <si>
     <t>ตารางประเภทผู้ใช้งานระบบ</t>
   </si>
@@ -141,6 +142,12 @@
   </si>
   <si>
     <t>ตารางเทียบเกรด</t>
+  </si>
+  <si>
+    <t>sdfsdf</t>
+  </si>
+  <si>
+    <t>sdfsadfsdf</t>
   </si>
 </sst>
 </file>
@@ -468,8 +475,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView topLeftCell="A27" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -676,4 +683,34 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:A10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/database.xlsx
+++ b/database.xlsx
@@ -9,11 +9,10 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11670" windowHeight="4680" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11670" windowHeight="4680"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>ตารางประเภทผู้ใช้งานระบบ</t>
   </si>
@@ -142,12 +141,6 @@
   </si>
   <si>
     <t>ตารางเทียบเกรด</t>
-  </si>
-  <si>
-    <t>sdfsdf</t>
-  </si>
-  <si>
-    <t>sdfsadfsdf</t>
   </si>
 </sst>
 </file>
@@ -475,8 +468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A39"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -683,34 +676,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A10"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>